--- a/data/standardized_IS.xlsx
+++ b/data/standardized_IS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielepicheo/GitHub/R /SEC_data_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C1E512-FB85-F840-B3AD-1FBFFAE80CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDC7B85-894C-BB4D-B2D5-3E753736A8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="500" windowWidth="21140" windowHeight="20020" xr2:uid="{4802AE4D-B274-A94A-943F-E5938A0AE0CD}"/>
+    <workbookView xWindow="4720" yWindow="1780" windowWidth="21140" windowHeight="20020" xr2:uid="{4802AE4D-B274-A94A-943F-E5938A0AE0CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
   <si>
     <t>Revenue</t>
   </si>
@@ -155,9 +155,6 @@
     <t>NetIncomeLoss</t>
   </si>
   <si>
-    <t>Net Income (loss)</t>
-  </si>
-  <si>
     <t>Other Non Operating Income (Loss) Net</t>
   </si>
   <si>
@@ -219,6 +216,12 @@
   </si>
   <si>
     <t>Financial Report</t>
+  </si>
+  <si>
+    <t>Net Income (loss) (operations)</t>
+  </si>
+  <si>
+    <t>Net Income (loss) to parent (incl. Non contr. Interest)</t>
   </si>
 </sst>
 </file>
@@ -618,7 +621,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="A24:XFD60"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -632,19 +635,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -653,16 +656,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -671,16 +674,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -695,10 +698,10 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -712,10 +715,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -729,10 +732,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -746,10 +749,10 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -763,10 +766,10 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -780,10 +783,10 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -797,15 +800,15 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>29</v>
@@ -814,10 +817,10 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -831,10 +834,10 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -848,10 +851,10 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -865,10 +868,10 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -882,10 +885,10 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -899,10 +902,10 @@
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -910,16 +913,16 @@
         <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -927,16 +930,16 @@
         <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -944,16 +947,16 @@
         <v>34</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -961,16 +964,16 @@
         <v>34</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -984,44 +987,44 @@
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">

--- a/data/standardized_IS.xlsx
+++ b/data/standardized_IS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielepicheo/GitHub/R /SEC_data_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDC7B85-894C-BB4D-B2D5-3E753736A8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F176B1-6EAF-464B-82A8-598E9C9B5452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="1780" windowWidth="21140" windowHeight="20020" xr2:uid="{4802AE4D-B274-A94A-943F-E5938A0AE0CD}"/>
+    <workbookView xWindow="4640" yWindow="6500" windowWidth="21140" windowHeight="20020" xr2:uid="{4802AE4D-B274-A94A-943F-E5938A0AE0CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
   <si>
     <t>Revenue</t>
   </si>
@@ -149,12 +149,6 @@
     <t>IncomeTaxExpenseBenefit</t>
   </si>
   <si>
-    <t>The portion of profit or loss for the period, net of income taxes, which is attributable to the parent.</t>
-  </si>
-  <si>
-    <t>NetIncomeLoss</t>
-  </si>
-  <si>
     <t>Other Non Operating Income (Loss) Net</t>
   </si>
   <si>
@@ -191,18 +185,6 @@
     <t>Income from continuing operations before income taxes.</t>
   </si>
   <si>
-    <t>IncomeLossFromContinuingOperationsBeforeIncomeTaxesDomestic</t>
-  </si>
-  <si>
-    <t>IncomeLossFromContinuingOperationsBeforeIncomeTaxesForeign</t>
-  </si>
-  <si>
-    <t>The portion of earnings or loss from continuing operations before income taxes that is attributable to domestic operations.</t>
-  </si>
-  <si>
-    <t>The portion of earnings or loss from continuing operations before income taxes that is attributable to foreign operations, which is defined as Income or Loss generated from operations located outside the entity's country of domicile.</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
@@ -218,10 +200,10 @@
     <t>Financial Report</t>
   </si>
   <si>
-    <t>Net Income (loss) (operations)</t>
-  </si>
-  <si>
-    <t>Net Income (loss) to parent (incl. Non contr. Interest)</t>
+    <t>Provision for (benefit) Income Tax</t>
+  </si>
+  <si>
+    <t>Net Income (loss) (continous operations)</t>
   </si>
 </sst>
 </file>
@@ -618,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6F0AFE-E52E-334A-8161-7EB63B8B31FB}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,19 +617,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -656,16 +638,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -674,16 +656,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -698,10 +680,10 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -715,10 +697,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -732,10 +714,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -749,10 +731,10 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -766,10 +748,10 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -783,10 +765,10 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -800,15 +782,15 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>29</v>
@@ -817,10 +799,10 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -834,10 +816,10 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -851,10 +833,10 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -868,10 +850,10 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -885,10 +867,10 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -902,10 +884,10 @@
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -913,16 +895,16 @@
         <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -930,109 +912,58 @@
         <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24"/>
-      <c r="E24" s="4"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21"/>
+      <c r="E21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/standardized_IS.xlsx
+++ b/data/standardized_IS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielepicheo/GitHub/R /SEC_data_analysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\GitHub\R\SEC_data_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F176B1-6EAF-464B-82A8-598E9C9B5452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F758EC-BD89-4BED-9522-702B347D0C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="6500" windowWidth="21140" windowHeight="20020" xr2:uid="{4802AE4D-B274-A94A-943F-E5938A0AE0CD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4802AE4D-B274-A94A-943F-E5938A0AE0CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
   <si>
     <t>Revenue</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Amount of income (expense) related to nonoperating activities, classified as other.</t>
   </si>
   <si>
-    <t>Other income (expense) Net</t>
-  </si>
-  <si>
     <t>Amount of income (loss) from continuing operations, including income (loss) from equity method investments, before deduction of income tax expense (benefit), and income (loss) attributable to noncontrolling interest.</t>
   </si>
   <si>
@@ -204,13 +201,25 @@
   </si>
   <si>
     <t>Net Income (loss) (continous operations)</t>
+  </si>
+  <si>
+    <t>The aggregate amount of income or expense from ancillary business-related activities (that is to say, excluding major activities considered part of the normal operations of the business).</t>
+  </si>
+  <si>
+    <t>NonoperatingIncomeExpense</t>
+  </si>
+  <si>
+    <t>Amount of expense (reversal of expense) for net periodic benefit cost components, excluding service cost component, of defined benefit plan. Amount includes, but is not limited to, interest cost, expected (return) loss on plan asset, amortization of prior service cost (credit), amortization of (gain) loss, amortization of transition (asset) obligation, settlement (gain) loss, curtailment (gain) loss and certain termination benefits.</t>
+  </si>
+  <si>
+    <t>NetPeriodicDefinedBenefitsExpenseReversalOfExpenseExcludingServiceCostComponent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -247,6 +256,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -268,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -286,9 +309,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -304,7 +333,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -600,76 +629,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6F0AFE-E52E-334A-8161-7EB63B8B31FB}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="63.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="83.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="67.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="63.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="83.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="65.33203125" customWidth="1"/>
+    <col min="8" max="8" width="65.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -680,13 +709,13 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -697,13 +726,13 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -714,13 +743,13 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -731,13 +760,13 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -748,13 +777,13 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -765,13 +794,13 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -782,188 +811,208 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21"/>
-      <c r="E21" s="4"/>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
